--- a/lingvo2/data/days of the week/days of the week.xlsx
+++ b/lingvo2/data/days of the week/days of the week.xlsx
@@ -698,7 +698,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
